--- a/ExamReg/public/upload/20191220_110929-TestedList.xlsx
+++ b/ExamReg/public/upload/20191220_110929-TestedList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greenleo\Desktop\importMySQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ExamReg\public\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC2A3B9-B747-450B-BA4B-1DE5FD91EF25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B1B8BF-0D5F-4999-BB3F-05102FE55BAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4875" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="15">
   <si>
     <t>msv</t>
   </si>
@@ -393,21 +393,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -421,7 +421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -435,7 +435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -449,7 +449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -463,7 +463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -477,7 +477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -505,7 +505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -519,325 +519,255 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>18020010</v>
+      </c>
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>18020008</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>18020009</v>
+        <v>18020001</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11">
-        <v>18020010</v>
+        <v>17020003</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12">
-        <v>18020001</v>
+        <v>17020004</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13">
-        <v>17020003</v>
+        <v>18020002</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>17020004</v>
+        <v>18020005</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>17020007</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>18020006</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>18020010</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>18020001</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>17020003</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>17020004</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>18020002</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>18020005</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>17020007</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>18020006</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>18020009</v>
+      </c>
+      <c r="D25" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>18020002</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>18020005</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>17020007</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>18020006</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>18020008</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>18020009</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
         <v>18020010</v>
       </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>18020001</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>17020003</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>17020004</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>18020002</v>
-      </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>18020005</v>
-      </c>
       <c r="D26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>17020007</v>
-      </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28">
-        <v>18020006</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>18020008</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>18020009</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>18020010</v>
-      </c>
-      <c r="D31" t="s">
         <v>14</v>
       </c>
     </row>
